--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
